--- a/HLD.xlsx
+++ b/HLD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5cfd33913750facc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jobs4\Intellij\PrepTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A99D8BD-1CF3-4537-89B2-88E42D0ED6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842C384D-7FC8-4968-B23D-FC12A9541337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC65BCF-6B0B-4691-A374-E716F295FFA4}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,12 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Notification System</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>URL Shortner</t>
   </si>
 </sst>
 </file>
@@ -393,13 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B1DFE-1CFF-42B4-A26F-49FC90DF550F}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -407,6 +417,22 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/HLD.xlsx
+++ b/HLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jobs4\Intellij\PrepTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842C384D-7FC8-4968-B23D-FC12A9541337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2075AF39-1C7E-4FA2-A81D-5F1BC255958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC65BCF-6B0B-4691-A374-E716F295FFA4}"/>
+    <workbookView xWindow="14430" yWindow="0" windowWidth="16290" windowHeight="15585" xr2:uid="{DFC65BCF-6B0B-4691-A374-E716F295FFA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,29 +34,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Notification System</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>URL Shortner</t>
+    <t>Design a Container Orchestration System (similar to Kubernetes basics)</t>
+  </si>
+  <si>
+    <t>Design a Machine Learning Model Deployment Platform</t>
+  </si>
+  <si>
+    <t>Design a Data Analytics Pipeline (event ingestion, aggregation, querying)</t>
+  </si>
+  <si>
+    <t>Design a Microservices Communication Layer (REST/gRPC/Event-based)</t>
+  </si>
+  <si>
+    <t>Design a Real-Time Collaborative Document Editor (like Google Docs)</t>
+  </si>
+  <si>
+    <t>Design a code deployment system</t>
+  </si>
+  <si>
+    <t>Design a Scalable Logging Framework / Centralized Logging Service</t>
+  </si>
+  <si>
+    <t>Design a High-Concurrency File Storage System (like Dropbox or Google Drive)</t>
+  </si>
+  <si>
+    <t>Design a Multi-player Game Backend (e.g. Chess, Poker)</t>
+  </si>
+  <si>
+    <t>Design a Video Streaming Platform (like YouTube/Netflix)</t>
+  </si>
+  <si>
+    <t>Design an E-commerce Checkout System</t>
+  </si>
+  <si>
+    <t>Design a Parking Lot System (sometimes LLD, sometimes HLD if scaling involved)</t>
+  </si>
+  <si>
+    <t>Design a Search Autocomplete System</t>
+  </si>
+  <si>
+    <t>Design a Messaging Queue System (like Kafka/SQS)</t>
+  </si>
+  <si>
+    <t>Design a Social Media Feed System (like Twitter/Instagram)</t>
+  </si>
+  <si>
+    <t>Design a Distributed Cache (like Redis or Memcached)</t>
+  </si>
+  <si>
+    <t>Design a Web Crawler</t>
+  </si>
+  <si>
+    <t>Design an Online Bookstore (like Amazon Books)</t>
+  </si>
+  <si>
+    <t>Design an Event-Driven Notification System</t>
+  </si>
+  <si>
+    <t>Design a URL Shortener (like bit.ly)</t>
+  </si>
+  <si>
+    <t>Basic Intro Design</t>
+  </si>
+  <si>
+    <t>Design Deep Dive</t>
+  </si>
+  <si>
+    <t>Extensions/Additions Coverage</t>
+  </si>
+  <si>
+    <t>End to End</t>
+  </si>
+  <si>
+    <t>Load Balancing: Techniques to distribute network or application traffic across multiple servers.</t>
+  </si>
+  <si>
+    <t>Database Design: Principles of structuring data storage for scalability and reliability.</t>
+  </si>
+  <si>
+    <t>Caching: Strategies to store and retrieve data efficiently to improve performance.</t>
+  </si>
+  <si>
+    <t>Sharding: Methods to partition databases to handle large datasets and high throughput.</t>
+  </si>
+  <si>
+    <t>Indexing: Techniques to optimize database queries for faster data retrieval.</t>
+  </si>
+  <si>
+    <t>Replication: Approaches to duplicate data across multiple machines for fault tolerance.</t>
+  </si>
+  <si>
+    <t>Consistent Hashing: A strategy to distribute data across a dynamic set of nodes.</t>
+  </si>
+  <si>
+    <t>MapReduce: A programming model for processing large data sets with a distributed algorithm.</t>
+  </si>
+  <si>
+    <t>Message Queues: Mechanisms for asynchronous communication between services.</t>
+  </si>
+  <si>
+    <t>Rate Limiting: Techniques to control the rate of requests to a system.</t>
+  </si>
+  <si>
+    <t>Leader Election: Algorithms to designate a single process as the coordinator among distributed processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP Theorem: Understanding the trade-offs between Consistency, Availability, and Partition Tolerance in distributed systems.
+</t>
+  </si>
+  <si>
+    <t>System Monitoring: Practices to observe and manage system performance and health.</t>
+  </si>
+  <si>
+    <t>Content Delivery Networks (CDNs): Systems of distributed servers that deliver content to users based on their
+ geographic location.</t>
+  </si>
+  <si>
+    <t>Design a Ride-Sharing Service (e.g., Uber)</t>
+  </si>
+  <si>
+    <t>Design a Payment Processing System</t>
+  </si>
+  <si>
+    <t>Design a Monitoring and Alerting System</t>
+  </si>
+  <si>
+    <t>System Design Basics to Cover</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,8 +211,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,39 +533,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B1DFE-1CFF-42B4-A26F-49FC90DF550F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="102.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
